--- a/biology/Médecine/Effets_biologiques_et_environnementaux_des_champs_électromagnétiques/Effets_biologiques_et_environnementaux_des_champs_électromagnétiques.xlsx
+++ b/biology/Médecine/Effets_biologiques_et_environnementaux_des_champs_électromagnétiques/Effets_biologiques_et_environnementaux_des_champs_électromagnétiques.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Effets_biologiques_et_environnementaux_des_champs_%C3%A9lectromagn%C3%A9tiques</t>
+          <t>Effets_biologiques_et_environnementaux_des_champs_électromagnétiques</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,15 +490,17 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'effet des rayonnements non-ionisant sur la santé et sur l'environnement est un sujet de santé publique dans la plupart des pays. Les effets des rayonnements ionisants sur la santé concernent, eux, le domaine de la radiobiologie. Les effets sur l'environnement non vivant concernent le domaine de la compatibilité électromagnétique.
 Les appareils électroniques sans fil tels que les téléphones portables, notamment les smartphones, le téléphone domestique sans fil, le Wi-Fi, ou encore les antenne-relais de téléphonie mobile, émettent des rayonnements radiofréquences (RF) (« ondes radio » non ionisantes comme les micro-ondes) ; les parties de la tête ou du corps les plus proches de l'antenne peuvent absorber cette énergie et la convertir en chaleur.
-Depuis les années 1990, des scientifiques cherchent un lien supposé entre le rayonnement (désormais omniprésent) associé aux antennes de téléphonie mobile ou aux tours de téléphonie cellulaire et une dégradation de la santé humaine[1].
+Depuis les années 1990, des scientifiques cherchent un lien supposé entre le rayonnement (désormais omniprésent) associé aux antennes de téléphonie mobile ou aux tours de téléphonie cellulaire et une dégradation de la santé humaine.
 Les réseaux de téléphonie mobile utilisent diverses bandes de rayonnement RF, dont certaines chevauchent la gamme des micro-ondes. D'autres systèmes numériques sans fil, tels que les réseaux de communication de données (téléphones, ordinateurs, tablettes, assistants personnels, répéteurs de signaux, commandes d'ouvertures etc.) produisent un rayonnement similaire.
-En réponse à l'inquiétude d'une partie du public, l'Organisation mondiale de la santé créa le Projet international Champs électriques et magnétiques - CEM / EMF (« Electric and Magnetic Fields », en anglais) en 1996 pour évaluer les preuves scientifiques des effets possibles sur la santé des CEM dans la gamme de fréquences de 0 à 300 GHz. Son rapport déclare que, bien que des recherches approfondies aient été menées sur les effets possibles de l'exposition à de nombreuses fréquences variées, tous les examens effectués jusqu'à présent ont indiqué que, tant que les expositions sont inférieures aux limites recommandées dans les directives CEM de l'ICNIRP (1998), qui couvrent toute la gamme de fréquences de 0 à 300 GHz, de telles expositions ne produisent aucun effet nocif connu sur la santé[2],[3].
-En 2011, le Centre international de recherche sur le cancer (CIRC), une agence de l'Organisation mondiale de la santé, a classé le rayonnement sans fil dans le groupe 2B – éventuellement cancérigène. Cela signifie qu'il « pourrait y avoir un certain risque » de cancérogénicité, donc des recherches supplémentaires sur l'utilisation intensive à long terme des appareils sans fil doivent être menées[4]. En 2018, alors que plusieurs études universitaires indépendantes démontraient plusieurs types de modifications de l'activité biologique liées aux ondes électromagnétiques, l'OMS déclare : « un grand nombre d'études ont été réalisées au cours des deux dernières décennies pour évaluer si les téléphones portables présentent un risque pour la santé. À ce jour, aucun effet néfaste sur la santé n'a été établi comme étant causé par l'utilisation du téléphone mobile. »[5]
-Les directives internationales sur les niveaux d'exposition aux champs électromagnétiques de fréquence micro-ondes telles que l'ICNIRP limitent les niveaux de puissance des appareils sans fil et il est rare que les appareils sans fil dépassent ces directives. Les directives ne prennent en compte que les effets thermiques. Par exemple, dans le monde anglo-saxon, la position officielle de l'Agence britannique de protection de la santé (HPA) est qu' « il n'y a aucune preuve cohérente à ce jour que le Wi-Fi et les WLAN affectent négativement la santé de la population générale », mais aussi que « c'est une approche de précaution sensée ... pour suivre la situation en permanence... »[6]. Dans une déclaration de 2018, la FDA écrit que « les limites de sécurité actuelles sont fixées pour inclure une marge de sécurité de 50 fois par rapport aux effets observés de l'exposition à l'énergie radiofréquence ».
+En réponse à l'inquiétude d'une partie du public, l'Organisation mondiale de la santé créa le Projet international Champs électriques et magnétiques - CEM / EMF (« Electric and Magnetic Fields », en anglais) en 1996 pour évaluer les preuves scientifiques des effets possibles sur la santé des CEM dans la gamme de fréquences de 0 à 300 GHz. Son rapport déclare que, bien que des recherches approfondies aient été menées sur les effets possibles de l'exposition à de nombreuses fréquences variées, tous les examens effectués jusqu'à présent ont indiqué que, tant que les expositions sont inférieures aux limites recommandées dans les directives CEM de l'ICNIRP (1998), qui couvrent toute la gamme de fréquences de 0 à 300 GHz, de telles expositions ne produisent aucun effet nocif connu sur la santé,.
+En 2011, le Centre international de recherche sur le cancer (CIRC), une agence de l'Organisation mondiale de la santé, a classé le rayonnement sans fil dans le groupe 2B – éventuellement cancérigène. Cela signifie qu'il « pourrait y avoir un certain risque » de cancérogénicité, donc des recherches supplémentaires sur l'utilisation intensive à long terme des appareils sans fil doivent être menées. En 2018, alors que plusieurs études universitaires indépendantes démontraient plusieurs types de modifications de l'activité biologique liées aux ondes électromagnétiques, l'OMS déclare : « un grand nombre d'études ont été réalisées au cours des deux dernières décennies pour évaluer si les téléphones portables présentent un risque pour la santé. À ce jour, aucun effet néfaste sur la santé n'a été établi comme étant causé par l'utilisation du téléphone mobile. »
+Les directives internationales sur les niveaux d'exposition aux champs électromagnétiques de fréquence micro-ondes telles que l'ICNIRP limitent les niveaux de puissance des appareils sans fil et il est rare que les appareils sans fil dépassent ces directives. Les directives ne prennent en compte que les effets thermiques. Par exemple, dans le monde anglo-saxon, la position officielle de l'Agence britannique de protection de la santé (HPA) est qu' « il n'y a aucune preuve cohérente à ce jour que le Wi-Fi et les WLAN affectent négativement la santé de la population générale », mais aussi que « c'est une approche de précaution sensée ... pour suivre la situation en permanence... ». Dans une déclaration de 2018, la FDA écrit que « les limites de sécurité actuelles sont fixées pour inclure une marge de sécurité de 50 fois par rapport aux effets observés de l'exposition à l'énergie radiofréquence ».
 </t>
         </is>
       </c>
@@ -499,7 +511,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Effets_biologiques_et_environnementaux_des_champs_%C3%A9lectromagn%C3%A9tiques</t>
+          <t>Effets_biologiques_et_environnementaux_des_champs_électromagnétiques</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -517,76 +529,54 @@
           <t>Exposition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les ondes permettant l'échange de données (Wi-Fi, téléphonie mobile...) ne se sont généralisées que depuis les années 1990. Cependant, tous les appareils électriques et électroniques (ampoules, chauffage, appareils de cuisson à induction, téléviseur, robot ménager, outillage...) utilisées par le grand public, dès l'origine, sont susceptibles de rayonner des champs électromagnétiques ; comme d'ailleurs le réseau de distribution électrique  ainsi que le réseau téléphonique filaire (dont les câblages internes des habitations). Les appareils concernés par le risque sanitaire des télécommunications sont ceux émettant des ondes pour l'échange de données, il s'agit, sans que cette liste soit exhaustive, des appareils suivants : téléphone mobile ; talkie-walkie ; téléphone fixe sans fil ; Wi-Fi ; WiMAX ; antenne-relais de téléphonie mobile ; Bluetooth ; clavier et souris sans fil ; manette sans fil de console de jeux.
-Téléphones portables
-Un téléphone mobile se connecte au réseau téléphonique via des ondes radio échangées avec une antenne locale et un émetteur-récepteur automatisé appelé station de base cellulaire (site, cellulaire ou tour cellulaire). La zone de service desservie par chaque fournisseur est divisée en petites zones géographiques appelées cellules, et tous les téléphones d'une cellule communiquent avec son antenne. Le téléphone et la tour ont des émetteurs radio qui communiquent entre eux. Étant donné que dans un réseau cellulaire, les mêmes canaux radio sont réutilisés toutes les 'X' cellules, les réseaux cellulaires utilisent des émetteurs de faible puissance pour éviter que les ondes radio d'une cellule ne se répandent et n'interfèrent avec une cellule voisine utilisant les mêmes fréquences.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Effets_biologiques_et_environnementaux_des_champs_électromagnétiques</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Effets_biologiques_et_environnementaux_des_champs_%C3%A9lectromagn%C3%A9tiques</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Exposition</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Téléphones portables</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un téléphone mobile se connecte au réseau téléphonique via des ondes radio échangées avec une antenne locale et un émetteur-récepteur automatisé appelé station de base cellulaire (site, cellulaire ou tour cellulaire). La zone de service desservie par chaque fournisseur est divisée en petites zones géographiques appelées cellules, et tous les téléphones d'une cellule communiquent avec son antenne. Le téléphone et la tour ont des émetteurs radio qui communiquent entre eux. Étant donné que dans un réseau cellulaire, les mêmes canaux radio sont réutilisés toutes les 'X' cellules, les réseaux cellulaires utilisent des émetteurs de faible puissance pour éviter que les ondes radio d'une cellule ne se répandent et n'interfèrent avec une cellule voisine utilisant les mêmes fréquences.
 Les téléphones portables sont limités à une sortie de puissance rayonnée isotrope effective (PRIE, parfois connu sous son acronyme anglais « EIRP ») de 3 watts et le réseau ajuste en permanence l'émetteur du téléphone à la puissance la plus faible compatible avec une bonne qualité de signal, la réduisant à un milliwatt à proximité de la tour cellulaire.
 Les émetteurs du canal de la tour ont généralement une puissance de sortie « PRIE » d'environ 50 watts. Même lorsqu'il n'est pas utilisé, à moins qu'il ne soit éteint, un téléphone mobile émet périodiquement des signaux radio sur son canal de contrôle, pour garder le contact avec sa tour de téléphonie cellulaire et pour des fonctions telles que le transfert du téléphone à une autre tour si l'utilisateur passe dans une autre cellule. Lorsque l'utilisateur passe un appel, le téléphone transmet un signal sur un deuxième canal qui transmet la voix de l'utilisateur.
 Les réseaux 2G, 3G et 4G existants utilisent des fréquences UHF ou micro-ondes basses – 600 MHz à 3,5 GHz. De nombreux appareils sans fil domestiques tels que les réseaux Wi-Fi, les portes automatiques de garage, les babyphones et certains interphones, utilisent cette même plage de fréquences.
 Les ondes radio diminuent rapidement d'intensité par l'inverse du carré de la distance, à partir d'une antenne émettrice. Ainsi, l'émetteur du téléphone, qui se tient près du visage de l'utilisateur lorsqu'il parle, est une source d'exposition humaine bien plus importante que l'émetteur de la tour, qui se trouve généralement à quelques centaines de mètres de l'utilisateur. Un utilisateur peut réduire son exposition en utilisant un casque, en coupant son téléphone (mode avion ou éteint) ou en l'utilisant plus éloigné de son corps.
-Les réseaux cellulaires 5G de nouvelle génération, qui ont commencé à se déployer en 2019, pourraient utiliser des fréquences plus élevées dans ou à proximité de la bande des ondes millimétriques: de 24 à 52 GHz[8],[9].
+Les réseaux cellulaires 5G de nouvelle génération, qui ont commencé à se déployer en 2019, pourraient utiliser des fréquences plus élevées dans ou à proximité de la bande des ondes millimétriques: de 24 à 52 GHz,.
 Ces ondes millimétriques sont facilement absorbées par les gaz atmosphériques, de sorte que les réseaux 5G utiliseront des cellules plus petites que les réseaux cellulaires précédents, de la taille d'un pâté de maisons (quelques dizaines de mètres). Au lieu d'une tour cellulaire, chaque cellule utilisera un réseau de plusieurs petites antennes montées sur des bâtiments et des poteaux électriques existants. Les premières études suggèrent que les ondes millimétriques pénètrent moins profondément dans les tissus biologiques que les micro-ondes et sont principalement absorbées dans les premiers centimètres de la surface du corps.
-Téléphones sans fil
-L'Agence britannique de protection de la santé (HPA) alerte par ailleurs qu'en raison de la capacité de puissance adaptative du téléphone mobile, le rayonnement d'un téléphone sans fil DECT pourrait bien dépasser le rayonnement d'un téléphone mobile. La HPA explique que si le rayonnement du téléphone sans fil DECT a une puissance de sortie moyenne de 10 mW, il se présente en fait sous la forme de 100 rafales par seconde de 250 mW, une puissance comparable à certains téléphones portables[10].
-Réseaux sans fil
-La plupart des équipements LAN sans fil sont conçus pour fonctionner selon des normes prédéfinies. Les points d'accès sans fil sont souvent situés à proximité d'habitations, de bureaux ou autres lieux fréquentés, mais la chute de puissance à distance est rapide – suivant la loi du carré inverse[11].
-Cependant, les ordinateurs portables sans fil sont généralement utilisés à proximité immédiate du corps. Le Wi-Fi fut lié par ailleurs à l'hypersensibilité électromagnétique ; sur ce sujet des recherches (établies en 2005 et 2008) sur l'hypersensibilité électromagnétique n'ont trouvé aucune preuve systématique à l'appui des personnes hyper-électrosensibles[12],[13].
-Les utilisateurs d'appareils de mise en réseau sans fil sont généralement exposés pendant des périodes beaucoup plus longues que pour les téléphones mobiles et la puissance des appareils sans fil n'est pas significativement inférieure. Alors qu'un téléphone UMTS (Universal Mobile Telecommunications System) peut aller de 21 dBm (125 mW) pour la classe de puissance 4 à 33 dBm (2 W) pour la classe de puissance 1, un routeur sans fil peut aller de 15 dBm (30 mW) jusqu'à 27 dBm (500 mW) sur des appareils « haut de gamme ».
-Cependant, là encore, la distance au corps est primordiale dans la mesure des nuisances : les routeurs sans fil sont généralement situés beaucoup plus loin de la tête des utilisateurs qu'un téléphone que l'utilisateur manipule, ce qui entraîne une surexposition électromagnétique moins importante. L'Agence de protection de la santé britannique (HPA) indique que si une personne passe un an dans un endroit doté d'un point d'accès Wi-Fi, elle recevra la même dose d'ondes radio que si elle avait passé un appel de 20 minutes sur un téléphone portable[14].
-La position de la HPA est que « les expositions aux radiofréquences (RF) du Wi-Fi sont susceptibles d'être inférieures à celles des téléphones portables. » Cette agence n'indique également « aucune raison pour que les écoles et autres n'utilisent pas l'équipement WiFi. »[6]
-En octobre 2007, la HPA a lancé une nouvelle étude « systématique » sur les effets des réseaux WiFi pour le compte du gouvernement britannique. Michael Clark de la HPA affirme que les recherches publiées sur les téléphones portables et les mâts ne constituent pas une mise en accusation directe de la technologie WiFi[15],[16].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Effets_biologiques_et_environnementaux_des_champs_%C3%A9lectromagn%C3%A9tiques</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Effets_biologiques_et_environnementaux_des_champs_%C3%A9lectromagn%C3%A9tiques</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Effets étudiés</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Des inquiétudes quant à des risques sur la santé du public concernant l'ensemble des équipements professionnels et d'usage domestique qui mettent en œuvre les technologies de transmission sans-fil à radio fréquence se sont exprimées. Pour y répondre, de nombreuses études ont été entreprises, notamment par l'OMS (Organisation mondiale de la santé) avec le projet CEM[17] sans apporter de preuve convaincante que l'exposition aux champs de radiofréquence ait des effets biologiques mesurables, nocifs ou non, aux niveaux d'intensité rencontrés dans l'environnement.
-Barrière hémato-encéphalique
-Une revue de 2010 déclare que « les preuves expérimentales n'appuient pas la thèse d'un effet des champs de radiofréquence » non-thermiques sur la perméabilité de la barrière hémato-encéphalique, mais note que la recherche sur les effets à basse fréquence et les effets chez l'homme est rare[18]. Une étude de 2012 sur les rayonnements à basse fréquence sur les humains n'a trouvé « aucune preuve d'effets aigus du rayonnement à court terme des téléphones portables sur le flux sanguin cérébral »[1],[19].
-Cancer
-Il n'existe aucun moyen connu par lequel le rayonnement radiofréquence (contrairement au rayonnement ionisant) affecte l'ADN pour provoquer un type de cancer. En 2011, le CIRC, un groupe de travail de l'OMS, classe l'utilisation du téléphone portable comme « peut-être cancérigènes pour les humains (Groupe 2B*) »[20],[21]. Le CIRC résume alors sa conclusion par : « Les preuves épidémiologiques humaines étaient mitigées. Plusieurs études de taille modeste de cas-témoins précoces furent considérées comme « non informatives ». Une vaste étude quantitative n'a montré aucune augmentation pertinente du risque de tumeurs, mais elle manquait d'informations sur le niveau d'utilisation du téléphone portable et il existait plusieurs sources potentielles d'erreur de classification de l'exposition. L'essentiel des preuves provenait des rapports de l'étude INTERPHONE, une très grande étude cas-témoin internationale multicentrique et une grande étude cas-témoin distincte en Suède sur les gliomes et les méningiomes du cerveau et les neurinomes de l'acoustique. Bien qu'affectées par un biais de sélection et un biais d'information à des degrés divers, ces études ont montré une association entre le gliome et le neurinome de l'acoustique et l'utilisation du téléphone portable ; spécifiquement chez les personnes faisant l'utilisation cumulative la plus élevée de téléphones portables, chez les personnes qui avaient utilisé des téléphones portables du même côté de la tête que celui sur lequel leur tumeur s'était développée, et chez les personnes dont la tumeur se trouvait dans le lobe temporal du cerveau (la zone du cerveau qui est le plus exposé aux rayonnements RF lorsqu'un téléphone sans fil est utilisé près de l'oreille) »[22]. Malgré ces conclusions, le CDC (États-Unis) déclare  qu'aucune preuve scientifique ne permet de déterminer avec certitude si l'utilisation du téléphone portable cause le cancer[1],[23].
-En 2007 une étude israélienne financée en partie par l'OMS a mis en évidence un risque de tumeur de la glande parotide accentué chez les personnes utilisant leur téléphone mobile plus de 45 minutes par jour[24], mais sans démontrer de causalité entre exposition et développement de tumeurs. Ainsi, le directeur de l'étude, Sigal Sadetski, rappelle que « les résultats d’une seule étude épidémiologique ne constituent pas une base suffisamment solide pour conclure à une relation de cause à effet. Des investigations supplémentaires sur cette association, avec des temps de latence plus importants et un plus grand nombre de gros utilisateurs sont nécessaires pour confirmer nos conclusions »[25].
-Une étude publiée auparavant (en 2009) et analysant l'évolution du nombre des tumeurs cérébrales entre 1974 et 2003 au Danemark, en Finlande, en Norvège et en Suède ne montre pas non plus d'augmentation de cancers du cerveau qui pourrait être liée à l'usage du téléphone mobile[26]. 
-Une vaste étude épidémiologique menée sur le téléphone mobile et la santé, portant sur plus de 10 700 personnes, l’étude « Interphone », dont les premiers résultats ont été publiés en mai 2010 dans la revue International Journal of Epidemiology ne montre pas de corrélation entre l'utilisation du téléphone mobile et le risque de tumeurs cancéreuses au niveau du cerveau : « aucune augmentation du risque de gliome ou de méningiome n’a été observé en relation avec l’utilisation du téléphone mobile. Une augmentation du risque de gliome a été suggéré aux niveaux d’exposition les plus élevés, toutefois des biais et des erreurs empêchent d’établir une interprétation causale »[27].
-Dans une déclaration de 2018, la Food and Drug Administration des États-Unis a déclaré que « les limites de sécurité actuelles sont fixées pour inclure une marge de sécurité de 50 fois par rapport aux effets observés de l'exposition à l'énergie radiofréquence »[28].
-Le 1er novembre 2018, le National Toxicology Program (États-Unis) publie la version finale de son étude sur des rats et des souris, menée sur une dizaine d'années. Ce rapport conclut après l'examen avec une déclaration mise à jour selon laquelle « il existe des preuves claires que les rats mâles exposés à des niveaux élevés de rayonnement radiofréquence (RFR) comme ceux utilisés dans les téléphones portables 2G et 3G ont développé des tumeurs cardiaques cancéreuses. (...) Il y avait également des preuves de tumeurs dans le cerveau et la glande surrénale des rats mâles exposés. Pour les rats femelles et les souris mâles et femelles, les preuves étaient équivoques quant à savoir si les cancers observés étaient associés à l'exposition aux RFR. »[29] Une analyse des résultats préliminaires de l'étude a fait valoir qu'en raison de problèmes tels que l'apparition incohérente de « signaux de danger » au sein et entre les espèces et les risques accrus de faux positifs en raison de la multiplicité des tests, les résultats positifs observés sont plus probablement « dus au hasard ». Les résultats complets de l'étude ont été publiés pour examen par les pairs en février 2018[30].
-Une étude de 2021 trouve des preuves « limitées » mais « suffisantes » sur les fréquences radio de l'ordre de 450 MHz à 6 000 MHz comme étant liées aux gliomes et aux neurinomes auditifs chez l'homme, concluant cependant également que « les preuves ne sont pas encore suffisamment solides pour établir une relation directe ». Aucune conclusion n'a pu être tirée pour des fréquences plus élevées en raison de l'absence d'études adéquates[31].
-Fertilité et reproduction
-Une baisse de la qualité du sperme masculin a été observée sur plusieurs décennies et dans plusieurs études[32],[33],[34]. Les études sur l'impact du rayonnement mobile sur la fertilité masculine sont contradictoires et les effets du rayonnement électromagnétique de radiofréquence (RF-EMR) émis par ces appareils sur les systèmes reproducteurs font actuellement l'objet d'un débat animé – notamment influencé par des acteurs industriels du secteur de la téléphonie[35],[36],[37],[38]. Une revue de 2012 a conclu que «ensemble, les résultats de ces études ont montré que RF-EMR diminue le nombre et la motilité des spermatozoïdes et augmente le stress oxydatif »[39],[40]. Une étude de 2017 portant sur 153 hommes ayant fréquenté une clinique de fertilité universitaire à Boston, dans le Massachusetts, révèle que l'utilisation « autodéclarée » du téléphone portable n'était pas liée à la qualité du sperme et que le fait de porter un téléphone portable dans la poche du pantalon n'était pas lié à la qualité du sperme[41].
-Un examen de 2021 a conclu que les fréquences radio 5G étaient de l'ordre de 450 MHz à 6 000 MHz affectent la fertilité masculine, peuvent affecter la fertilité féminine et peuvent avoir des effets néfastes sur le développement des embryons, des fœtus et des nouveau-nés. Aucune conclusion n'a pu être tirée pour des fréquences plus élevées en raison de l'absence d'études satisfaisantes[31].
-Hypersensibilité électromagnétique
-Certains utilisateurs de téléphones mobiles et d'appareils similaires ont signalé avoir ressenti divers symptômes pendant et après l'utilisation. Les études n'ont pas encore établi de lien entre ces symptômes et l'exposition électromagnétique[42].
-Métabolisme du glucose
-Selon l'Institut national du cancer aux États-Unis, deux petites études explorant si et comment le rayonnement des téléphones portables affecte le métabolisme du glucose dans le cerveau ont donné des résultats incohérents[1].
-Effets sur les enfants
-Un rapport de l'Agence de protection contre les radiations et de sûreté nucléaire (ARPANSA) du gouvernement australien en juin 2017 notait que : « Le programme de recherche de l'OMS de 2010 a identifié un manque de preuves suffisantes concernant les enfants et c'est toujours le cas. ... Étant donné qu'aucune étude prospective à long terme ne s'est penchée sur cette question à ce jour, ce besoin de recherche reste hautement prioritaire. En ce qui concerne le cancer en particulier, une seule étude cas-témoins complète portant sur quatre pays européens a examiné l'utilisation du téléphone portable chez les enfants ou les adolescents et le risque de tumeur cérébrale ; elle n'a révélé aucune association entre les deux (Aydin et al. 2011). ... Compte tenu de ce manque d'informations concernant l'utilisation des téléphones portables par les enfants et le cancer... d'autres études épidémiologiques sont nécessaires. »
 </t>
         </is>
       </c>
@@ -597,7 +587,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Effets_biologiques_et_environnementaux_des_champs_%C3%A9lectromagn%C3%A9tiques</t>
+          <t>Effets_biologiques_et_environnementaux_des_champs_électromagnétiques</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -612,14 +602,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Stations</t>
+          <t>Exposition</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les experts consultés par la France ont considéré qu'il est obligatoire que l'axe principal de l'antenne ne soit pas directement devant un lieu de vie à une distance inférieure à 100 mètres[43]. Cette recommandation a été modifiée en 2003[44], afin de préciser que les antennes situées dans un rayon de 100 mètres des écoles primaires ou des garderies devraient être mieux intégrées dans le paysage urbain ; cette recommandation n'a pas été incluse dans un rapport d'expertise de 2005[45].
-En 2009, l'ANSES, affirme qu'il n'y a pas d'effet à court terme démontré des champs électromagnétiques sur la santé, mais qu'il existe des questions ouvertes sur les effets à long terme et qu'il est facile de réduire l'exposition grâce à des améliorations technologiques[46].
-Une étude de 2020 dans Environmental Research a révélé que « bien que la causalité directe des effets négatifs sur la santé humaine des RFR des stations de base de téléphonie cellulaire n'ait pas été finalisée, il existe déjà suffisamment de preuves médicales et scientifiques pour justifier des problèmes de responsabilité à long terme pour les entreprises déployant des tours de téléphonie cellulaire » et a ainsi recommandé des retraits volontaires des écoles et des hôpitaux[47].
+          <t>Téléphones sans fil</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Agence britannique de protection de la santé (HPA) alerte par ailleurs qu'en raison de la capacité de puissance adaptative du téléphone mobile, le rayonnement d'un téléphone sans fil DECT pourrait bien dépasser le rayonnement d'un téléphone mobile. La HPA explique que si le rayonnement du téléphone sans fil DECT a une puissance de sortie moyenne de 10 mW, il se présente en fait sous la forme de 100 rafales par seconde de 250 mW, une puissance comparable à certains téléphones portables.
 </t>
         </is>
       </c>
@@ -630,7 +624,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Effets_biologiques_et_environnementaux_des_champs_%C3%A9lectromagn%C3%A9tiques</t>
+          <t>Effets_biologiques_et_environnementaux_des_champs_électromagnétiques</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -645,123 +639,797 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Exposition</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Réseaux sans fil</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plupart des équipements LAN sans fil sont conçus pour fonctionner selon des normes prédéfinies. Les points d'accès sans fil sont souvent situés à proximité d'habitations, de bureaux ou autres lieux fréquentés, mais la chute de puissance à distance est rapide – suivant la loi du carré inverse.
+Cependant, les ordinateurs portables sans fil sont généralement utilisés à proximité immédiate du corps. Le Wi-Fi fut lié par ailleurs à l'hypersensibilité électromagnétique ; sur ce sujet des recherches (établies en 2005 et 2008) sur l'hypersensibilité électromagnétique n'ont trouvé aucune preuve systématique à l'appui des personnes hyper-électrosensibles,.
+Les utilisateurs d'appareils de mise en réseau sans fil sont généralement exposés pendant des périodes beaucoup plus longues que pour les téléphones mobiles et la puissance des appareils sans fil n'est pas significativement inférieure. Alors qu'un téléphone UMTS (Universal Mobile Telecommunications System) peut aller de 21 dBm (125 mW) pour la classe de puissance 4 à 33 dBm (2 W) pour la classe de puissance 1, un routeur sans fil peut aller de 15 dBm (30 mW) jusqu'à 27 dBm (500 mW) sur des appareils « haut de gamme ».
+Cependant, là encore, la distance au corps est primordiale dans la mesure des nuisances : les routeurs sans fil sont généralement situés beaucoup plus loin de la tête des utilisateurs qu'un téléphone que l'utilisateur manipule, ce qui entraîne une surexposition électromagnétique moins importante. L'Agence de protection de la santé britannique (HPA) indique que si une personne passe un an dans un endroit doté d'un point d'accès Wi-Fi, elle recevra la même dose d'ondes radio que si elle avait passé un appel de 20 minutes sur un téléphone portable.
+La position de la HPA est que « les expositions aux radiofréquences (RF) du Wi-Fi sont susceptibles d'être inférieures à celles des téléphones portables. » Cette agence n'indique également « aucune raison pour que les écoles et autres n'utilisent pas l'équipement WiFi. »
+En octobre 2007, la HPA a lancé une nouvelle étude « systématique » sur les effets des réseaux WiFi pour le compte du gouvernement britannique. Michael Clark de la HPA affirme que les recherches publiées sur les téléphones portables et les mâts ne constituent pas une mise en accusation directe de la technologie WiFi,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Effets_biologiques_et_environnementaux_des_champs_électromagnétiques</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Effets_biologiques_et_environnementaux_des_champs_%C3%A9lectromagn%C3%A9tiques</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Effets étudiés</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des inquiétudes quant à des risques sur la santé du public concernant l'ensemble des équipements professionnels et d'usage domestique qui mettent en œuvre les technologies de transmission sans-fil à radio fréquence se sont exprimées. Pour y répondre, de nombreuses études ont été entreprises, notamment par l'OMS (Organisation mondiale de la santé) avec le projet CEM sans apporter de preuve convaincante que l'exposition aux champs de radiofréquence ait des effets biologiques mesurables, nocifs ou non, aux niveaux d'intensité rencontrés dans l'environnement.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Effets_biologiques_et_environnementaux_des_champs_électromagnétiques</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Effets_biologiques_et_environnementaux_des_champs_%C3%A9lectromagn%C3%A9tiques</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Effets étudiés</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Barrière hémato-encéphalique</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une revue de 2010 déclare que « les preuves expérimentales n'appuient pas la thèse d'un effet des champs de radiofréquence » non-thermiques sur la perméabilité de la barrière hémato-encéphalique, mais note que la recherche sur les effets à basse fréquence et les effets chez l'homme est rare. Une étude de 2012 sur les rayonnements à basse fréquence sur les humains n'a trouvé « aucune preuve d'effets aigus du rayonnement à court terme des téléphones portables sur le flux sanguin cérébral »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Effets_biologiques_et_environnementaux_des_champs_électromagnétiques</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Effets_biologiques_et_environnementaux_des_champs_%C3%A9lectromagn%C3%A9tiques</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Effets étudiés</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Cancer</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il n'existe aucun moyen connu par lequel le rayonnement radiofréquence (contrairement au rayonnement ionisant) affecte l'ADN pour provoquer un type de cancer. En 2011, le CIRC, un groupe de travail de l'OMS, classe l'utilisation du téléphone portable comme « peut-être cancérigènes pour les humains (Groupe 2B*) »,. Le CIRC résume alors sa conclusion par : « Les preuves épidémiologiques humaines étaient mitigées. Plusieurs études de taille modeste de cas-témoins précoces furent considérées comme « non informatives ». Une vaste étude quantitative n'a montré aucune augmentation pertinente du risque de tumeurs, mais elle manquait d'informations sur le niveau d'utilisation du téléphone portable et il existait plusieurs sources potentielles d'erreur de classification de l'exposition. L'essentiel des preuves provenait des rapports de l'étude INTERPHONE, une très grande étude cas-témoin internationale multicentrique et une grande étude cas-témoin distincte en Suède sur les gliomes et les méningiomes du cerveau et les neurinomes de l'acoustique. Bien qu'affectées par un biais de sélection et un biais d'information à des degrés divers, ces études ont montré une association entre le gliome et le neurinome de l'acoustique et l'utilisation du téléphone portable ; spécifiquement chez les personnes faisant l'utilisation cumulative la plus élevée de téléphones portables, chez les personnes qui avaient utilisé des téléphones portables du même côté de la tête que celui sur lequel leur tumeur s'était développée, et chez les personnes dont la tumeur se trouvait dans le lobe temporal du cerveau (la zone du cerveau qui est le plus exposé aux rayonnements RF lorsqu'un téléphone sans fil est utilisé près de l'oreille) ». Malgré ces conclusions, le CDC (États-Unis) déclare  qu'aucune preuve scientifique ne permet de déterminer avec certitude si l'utilisation du téléphone portable cause le cancer,.
+En 2007 une étude israélienne financée en partie par l'OMS a mis en évidence un risque de tumeur de la glande parotide accentué chez les personnes utilisant leur téléphone mobile plus de 45 minutes par jour, mais sans démontrer de causalité entre exposition et développement de tumeurs. Ainsi, le directeur de l'étude, Sigal Sadetski, rappelle que « les résultats d’une seule étude épidémiologique ne constituent pas une base suffisamment solide pour conclure à une relation de cause à effet. Des investigations supplémentaires sur cette association, avec des temps de latence plus importants et un plus grand nombre de gros utilisateurs sont nécessaires pour confirmer nos conclusions ».
+Une étude publiée auparavant (en 2009) et analysant l'évolution du nombre des tumeurs cérébrales entre 1974 et 2003 au Danemark, en Finlande, en Norvège et en Suède ne montre pas non plus d'augmentation de cancers du cerveau qui pourrait être liée à l'usage du téléphone mobile. 
+Une vaste étude épidémiologique menée sur le téléphone mobile et la santé, portant sur plus de 10 700 personnes, l’étude « Interphone », dont les premiers résultats ont été publiés en mai 2010 dans la revue International Journal of Epidemiology ne montre pas de corrélation entre l'utilisation du téléphone mobile et le risque de tumeurs cancéreuses au niveau du cerveau : « aucune augmentation du risque de gliome ou de méningiome n’a été observé en relation avec l’utilisation du téléphone mobile. Une augmentation du risque de gliome a été suggéré aux niveaux d’exposition les plus élevés, toutefois des biais et des erreurs empêchent d’établir une interprétation causale ».
+Dans une déclaration de 2018, la Food and Drug Administration des États-Unis a déclaré que « les limites de sécurité actuelles sont fixées pour inclure une marge de sécurité de 50 fois par rapport aux effets observés de l'exposition à l'énergie radiofréquence ».
+Le 1er novembre 2018, le National Toxicology Program (États-Unis) publie la version finale de son étude sur des rats et des souris, menée sur une dizaine d'années. Ce rapport conclut après l'examen avec une déclaration mise à jour selon laquelle « il existe des preuves claires que les rats mâles exposés à des niveaux élevés de rayonnement radiofréquence (RFR) comme ceux utilisés dans les téléphones portables 2G et 3G ont développé des tumeurs cardiaques cancéreuses. (...) Il y avait également des preuves de tumeurs dans le cerveau et la glande surrénale des rats mâles exposés. Pour les rats femelles et les souris mâles et femelles, les preuves étaient équivoques quant à savoir si les cancers observés étaient associés à l'exposition aux RFR. » Une analyse des résultats préliminaires de l'étude a fait valoir qu'en raison de problèmes tels que l'apparition incohérente de « signaux de danger » au sein et entre les espèces et les risques accrus de faux positifs en raison de la multiplicité des tests, les résultats positifs observés sont plus probablement « dus au hasard ». Les résultats complets de l'étude ont été publiés pour examen par les pairs en février 2018.
+Une étude de 2021 trouve des preuves « limitées » mais « suffisantes » sur les fréquences radio de l'ordre de 450 MHz à 6 000 MHz comme étant liées aux gliomes et aux neurinomes auditifs chez l'homme, concluant cependant également que « les preuves ne sont pas encore suffisamment solides pour établir une relation directe ». Aucune conclusion n'a pu être tirée pour des fréquences plus élevées en raison de l'absence d'études adéquates.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Effets_biologiques_et_environnementaux_des_champs_électromagnétiques</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Effets_biologiques_et_environnementaux_des_champs_%C3%A9lectromagn%C3%A9tiques</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Effets étudiés</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Fertilité et reproduction</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une baisse de la qualité du sperme masculin a été observée sur plusieurs décennies et dans plusieurs études. Les études sur l'impact du rayonnement mobile sur la fertilité masculine sont contradictoires et les effets du rayonnement électromagnétique de radiofréquence (RF-EMR) émis par ces appareils sur les systèmes reproducteurs font actuellement l'objet d'un débat animé – notamment influencé par des acteurs industriels du secteur de la téléphonie. Une revue de 2012 a conclu que «ensemble, les résultats de ces études ont montré que RF-EMR diminue le nombre et la motilité des spermatozoïdes et augmente le stress oxydatif »,. Une étude de 2017 portant sur 153 hommes ayant fréquenté une clinique de fertilité universitaire à Boston, dans le Massachusetts, révèle que l'utilisation « autodéclarée » du téléphone portable n'était pas liée à la qualité du sperme et que le fait de porter un téléphone portable dans la poche du pantalon n'était pas lié à la qualité du sperme.
+Un examen de 2021 a conclu que les fréquences radio 5G étaient de l'ordre de 450 MHz à 6 000 MHz affectent la fertilité masculine, peuvent affecter la fertilité féminine et peuvent avoir des effets néfastes sur le développement des embryons, des fœtus et des nouveau-nés. Aucune conclusion n'a pu être tirée pour des fréquences plus élevées en raison de l'absence d'études satisfaisantes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Effets_biologiques_et_environnementaux_des_champs_électromagnétiques</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Effets_biologiques_et_environnementaux_des_champs_%C3%A9lectromagn%C3%A9tiques</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Effets étudiés</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Hypersensibilité électromagnétique</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certains utilisateurs de téléphones mobiles et d'appareils similaires ont signalé avoir ressenti divers symptômes pendant et après l'utilisation. Les études n'ont pas encore établi de lien entre ces symptômes et l'exposition électromagnétique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Effets_biologiques_et_environnementaux_des_champs_électromagnétiques</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Effets_biologiques_et_environnementaux_des_champs_%C3%A9lectromagn%C3%A9tiques</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Effets étudiés</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Métabolisme du glucose</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'Institut national du cancer aux États-Unis, deux petites études explorant si et comment le rayonnement des téléphones portables affecte le métabolisme du glucose dans le cerveau ont donné des résultats incohérents.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Effets_biologiques_et_environnementaux_des_champs_électromagnétiques</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Effets_biologiques_et_environnementaux_des_champs_%C3%A9lectromagn%C3%A9tiques</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Effets étudiés</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Effets sur les enfants</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un rapport de l'Agence de protection contre les radiations et de sûreté nucléaire (ARPANSA) du gouvernement australien en juin 2017 notait que : « Le programme de recherche de l'OMS de 2010 a identifié un manque de preuves suffisantes concernant les enfants et c'est toujours le cas. ... Étant donné qu'aucune étude prospective à long terme ne s'est penchée sur cette question à ce jour, ce besoin de recherche reste hautement prioritaire. En ce qui concerne le cancer en particulier, une seule étude cas-témoins complète portant sur quatre pays européens a examiné l'utilisation du téléphone portable chez les enfants ou les adolescents et le risque de tumeur cérébrale ; elle n'a révélé aucune association entre les deux (Aydin et al. 2011). ... Compte tenu de ce manque d'informations concernant l'utilisation des téléphones portables par les enfants et le cancer... d'autres études épidémiologiques sont nécessaires. »
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Effets_biologiques_et_environnementaux_des_champs_électromagnétiques</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Effets_biologiques_et_environnementaux_des_champs_%C3%A9lectromagn%C3%A9tiques</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Stations</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les experts consultés par la France ont considéré qu'il est obligatoire que l'axe principal de l'antenne ne soit pas directement devant un lieu de vie à une distance inférieure à 100 mètres. Cette recommandation a été modifiée en 2003, afin de préciser que les antennes situées dans un rayon de 100 mètres des écoles primaires ou des garderies devraient être mieux intégrées dans le paysage urbain ; cette recommandation n'a pas été incluse dans un rapport d'expertise de 2005.
+En 2009, l'ANSES, affirme qu'il n'y a pas d'effet à court terme démontré des champs électromagnétiques sur la santé, mais qu'il existe des questions ouvertes sur les effets à long terme et qu'il est facile de réduire l'exposition grâce à des améliorations technologiques.
+Une étude de 2020 dans Environmental Research a révélé que « bien que la causalité directe des effets négatifs sur la santé humaine des RFR des stations de base de téléphonie cellulaire n'ait pas été finalisée, il existe déjà suffisamment de preuves médicales et scientifiques pour justifier des problèmes de responsabilité à long terme pour les entreprises déployant des tours de téléphonie cellulaire » et a ainsi recommandé des retraits volontaires des écoles et des hôpitaux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Effets_biologiques_et_environnementaux_des_champs_électromagnétiques</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Effets_biologiques_et_environnementaux_des_champs_%C3%A9lectromagn%C3%A9tiques</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>Normes sécuritaires et licences</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour protéger la population vivant autour des antennes ainsi que les utilisateurs de téléphones mobiles, les gouvernements et les organismes de réglementation adoptent des normes de sécurité, qui se traduisent par des limites sur les niveaux d'exposition en dessous d'une certaine valeur. Il existe de nombreuses normes nationales et internationales proposées, mais celle de la Commission internationale de protection contre les rayonnements non ionisants (ICNIRP) est la plus respectée et a été adoptée à ce jour par plus de 80 pays.
-Pour les radios, l'ICNIRP propose deux niveaux de sécurité : un pour l'exposition professionnelle, un autre pour la population générale. Des efforts politiques sont toujours d'actualité, afin d'harmoniser les différentes normes existantes[48].
+Pour les radios, l'ICNIRP propose deux niveaux de sécurité : un pour l'exposition professionnelle, un autre pour la population générale. Des efforts politiques sont toujours d'actualité, afin d'harmoniser les différentes normes existantes.
 Des procédures d'octroi de licences de base radio ont été établies dans la majorité des espaces urbains réglementés au niveau municipal/comté, provincial/étatique ou national. Les fournisseurs de services de téléphonie mobile sont, dans de nombreuses régions, tenus d'obtenir des licences de construction, de fournir une certification des niveaux d'émission d'antenne et d'assurer la conformité aux normes ICNIRP et/ou aux législations environnementales.
 De nombreux organismes gouvernementaux exigent également que les entreprises de télécommunications concurrentes partagent des tours télécoms afin de réduire l'impact environnemental et cosmétique. Cette question est un facteur influent de rejet de l'installation de nouvelles antennes et pylônes dans les collectivités.
 Les normes de sécurité aux États-Unis sont établies par la Federal Communications Commission (FCC). La FCC a basé ses normes principalement sur les normes établies par le National Council on Radiation Protection and Measurements (NCRP), une organisation scientifique à charte qui dépend du Congrès située dans la zone WDC ainsi que l'Institute of Electrical and Electronics Engineers (IEEE), en particulier le sous-comité 4 du Comité international sur la sécurité électromagnétique.
-La Fédération helvétique a fixé des limites de sécurité inférieures aux limites de l'ICNIRP pour certaines zones sensibles (salles de classe, par exemple)[49].
-En mars 2020, pour la première fois depuis 1998, l'ICNIRP a mis à jour ses directives pour l'exposition aux fréquences supérieures à 6 GHz, y compris les fréquences utilisées pour la 5G. Cette Commission ajouta une restriction sur les niveaux acceptables d'exposition pour l'ensemble du corps, ainsi qu'une restriction sur les niveaux acceptables pour de brèves expositions à de petites régions du corps et a réduit la quantité maximale d'exposition autorisée sur une petite région du corps[50].
-En Europe
-Afin de protéger le public des risques liés aux champs électromagnétiques, l'Union Européenne a publié une recommandation définissant les limites d'exposition du public[51]. Ces valeurs sont basées sur les recommandations de l'ICNIRP[52]. Certains états membres, tel que la France[53], ont repris ces valeurs dans leur législation nationale.  
+La Fédération helvétique a fixé des limites de sécurité inférieures aux limites de l'ICNIRP pour certaines zones sensibles (salles de classe, par exemple).
+En mars 2020, pour la première fois depuis 1998, l'ICNIRP a mis à jour ses directives pour l'exposition aux fréquences supérieures à 6 GHz, y compris les fréquences utilisées pour la 5G. Cette Commission ajouta une restriction sur les niveaux acceptables d'exposition pour l'ensemble du corps, ainsi qu'une restriction sur les niveaux acceptables pour de brèves expositions à de petites régions du corps et a réduit la quantité maximale d'exposition autorisée sur une petite région du corps.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Effets_biologiques_et_environnementaux_des_champs_électromagnétiques</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Effets_biologiques_et_environnementaux_des_champs_%C3%A9lectromagn%C3%A9tiques</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Normes sécuritaires et licences</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>En Europe</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Afin de protéger le public des risques liés aux champs électromagnétiques, l'Union Européenne a publié une recommandation définissant les limites d'exposition du public. Ces valeurs sont basées sur les recommandations de l'ICNIRP. Certains états membres, tel que la France, ont repris ces valeurs dans leur législation nationale.  
 Pour les appareils, les directives européennes des équipements radio et la basse tension (pour les appareils électriques sans fonction radio) se réfèrent à des normes européennes harmonisées dont les limites sont basées sur les recommandations de l'ICNIRP. Le marquage CE sur le produit est la preuve que le constructeur s'engage à la conformité de son produit aux directives européennes et limites applicables. 
-Les limites maximales d'exposition en Europe sont principalement fixées pour protéger le public des effets thermiques[54] (élévation de température) des ondes électromagnétiques. 
-Ville de Paris
-En février 2017, la Ville de Paris a revu sa charte de la téléphonie mobile datée de 2003, et en particulier son niveau maximum d'exposition aux ondes ce qui selon la mairie fera de Paris « la métropole européenne qui protège le plus les habitants des ondes électromagnétiques » grâce à trois mesures : 
-Une baisse de 30 % du seuil maximal autorisé d’exposition aux ondes (qui était en 2012 à 7 V/m équivalent 900 MHz dans les lieux de vie fermés, et passera à 5 V/m)[56] ;
-Un observatoire municipal des ondes, chargé de contrôler le niveau d'exposition dans les haltes garderie, les crèches et les écoles, dans l’espace public et une trentaine d’autres équipements. Cet observatoire sensibilisera le public et pourra initier des études[56] ;
-des mesures gratuites faites au domicile des parisiens, sur simple demande[56].
-Principauté de Monaco
-La gestion des risques liés aux rayonnements électromagnétiques est gérée par la Direction du Développement des Usages Numériques[57]. Dans la principauté, la limite d'exposition est de 4 V/m en extérieur et 6 V/m pour « les lieux publics de passage situés à l’intérieur des bâtiments »[58]. C'est une des limites les plus sévères d'Europe, près de 5 fois en dessous du seuil minimal fixé par l'OMS.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Effets_biologiques_et_environnementaux_des_champs_%C3%A9lectromagn%C3%A9tiques</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Effets_biologiques_et_environnementaux_des_champs_%C3%A9lectromagn%C3%A9tiques</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+Les limites maximales d'exposition en Europe sont principalement fixées pour protéger le public des effets thermiques (élévation de température) des ondes électromagnétiques. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Effets_biologiques_et_environnementaux_des_champs_électromagnétiques</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Effets_biologiques_et_environnementaux_des_champs_%C3%A9lectromagn%C3%A9tiques</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Normes sécuritaires et licences</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Ville de Paris</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>En février 2017, la Ville de Paris a revu sa charte de la téléphonie mobile datée de 2003, et en particulier son niveau maximum d'exposition aux ondes ce qui selon la mairie fera de Paris « la métropole européenne qui protège le plus les habitants des ondes électromagnétiques » grâce à trois mesures : 
+Une baisse de 30 % du seuil maximal autorisé d’exposition aux ondes (qui était en 2012 à 7 V/m équivalent 900 MHz dans les lieux de vie fermés, et passera à 5 V/m) ;
+Un observatoire municipal des ondes, chargé de contrôler le niveau d'exposition dans les haltes garderie, les crèches et les écoles, dans l’espace public et une trentaine d’autres équipements. Cet observatoire sensibilisera le public et pourra initier des études ;
+des mesures gratuites faites au domicile des parisiens, sur simple demande.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Effets_biologiques_et_environnementaux_des_champs_électromagnétiques</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Effets_biologiques_et_environnementaux_des_champs_%C3%A9lectromagn%C3%A9tiques</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Normes sécuritaires et licences</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Principauté de Monaco</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La gestion des risques liés aux rayonnements électromagnétiques est gérée par la Direction du Développement des Usages Numériques. Dans la principauté, la limite d'exposition est de 4 V/m en extérieur et 6 V/m pour « les lieux publics de passage situés à l’intérieur des bâtiments ». C'est une des limites les plus sévères d'Europe, près de 5 fois en dessous du seuil minimal fixé par l'OMS.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Effets_biologiques_et_environnementaux_des_champs_électromagnétiques</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Effets_biologiques_et_environnementaux_des_champs_%C3%A9lectromagn%C3%A9tiques</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>Précautions</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Principe de précaution
-En 2000, l'Organisation mondiale de la santé (OMS) recommande que le principe de précaution puisse s'appliquer volontairement dans le cas des télécommunications[61]. Il suit les recommandations de la Communauté Européenne pour les risques environnementaux. Il en va de même pour l'Agence européenne pour l'environnement[62]. D'autres approches recommandées sont le « principe d'évitement prudent » et une pratique aussi faible que raisonnablement possible.
-Bien que toutes ces mesures soient problématiques dans leur application, en raison de l'utilisation généralisée et de l'importance économique des systèmes de télécommunication sans fil dans les civilisations modernes, il existe une application croissante de ces mesures parmi le grand public, bien qu'il soit également prouvé que de telles approches peuvent accroître les inquiétudes[63]. Ils impliquent des recommandations telles que la minimisation de l'utilisation, la limitation de l'utilisation par les populations à risque (par exemple, les enfants), l'adoption de téléphones et de « microcellulaires » avec des niveaux de rayonnement aussi faibles que raisonnablement réalisables, l'utilisation plus large des kits mains libres et des écouteurs Bluetooth l'adoption de normes maximales d'exposition, l'intensité du champ RF et la distance des antennes des stations de base par rapport aux habitations humaines, etc.[réf. nécessaire]
-Dans l'ensemble, l'information du grand public reste un défi car diverses conséquences sanitaires sont évoquées dans la littérature et par les médias, exposant les populations de manière chronique à des informations potentiellement fallacieuses ou erronées[64].
-Mesures de précaution et avis sanitaires
-En mai 2011, le Centre international de recherche sur le cancer de l'OMS annonce qu'il classe les champs électromagnétiques des téléphones portables et d'autres sources comme «probablement cancérigènes pour l'homme» et conseille publiquement d'adopter des mesures de sécurité pour en réduire l'exposition, comme l'utilisation de kits mains libres ou de textos.
-Certaines autorités nationales de conseil en matière de rayonnement, y compris celles d'Autriche[65], de France, d' Allemagne[66] et de Suède[67] recommandent des mesures de minimisation de l'exposition de leurs citoyens.
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Principe de précaution</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2000, l'Organisation mondiale de la santé (OMS) recommande que le principe de précaution puisse s'appliquer volontairement dans le cas des télécommunications. Il suit les recommandations de la Communauté Européenne pour les risques environnementaux. Il en va de même pour l'Agence européenne pour l'environnement. D'autres approches recommandées sont le « principe d'évitement prudent » et une pratique aussi faible que raisonnablement possible.
+Bien que toutes ces mesures soient problématiques dans leur application, en raison de l'utilisation généralisée et de l'importance économique des systèmes de télécommunication sans fil dans les civilisations modernes, il existe une application croissante de ces mesures parmi le grand public, bien qu'il soit également prouvé que de telles approches peuvent accroître les inquiétudes. Ils impliquent des recommandations telles que la minimisation de l'utilisation, la limitation de l'utilisation par les populations à risque (par exemple, les enfants), l'adoption de téléphones et de « microcellulaires » avec des niveaux de rayonnement aussi faibles que raisonnablement réalisables, l'utilisation plus large des kits mains libres et des écouteurs Bluetooth l'adoption de normes maximales d'exposition, l'intensité du champ RF et la distance des antennes des stations de base par rapport aux habitations humaines, etc.[réf. nécessaire]
+Dans l'ensemble, l'information du grand public reste un défi car diverses conséquences sanitaires sont évoquées dans la littérature et par les médias, exposant les populations de manière chronique à des informations potentiellement fallacieuses ou erronées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Effets_biologiques_et_environnementaux_des_champs_électromagnétiques</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Effets_biologiques_et_environnementaux_des_champs_%C3%A9lectromagn%C3%A9tiques</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Précautions</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Mesures de précaution et avis sanitaires</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En mai 2011, le Centre international de recherche sur le cancer de l'OMS annonce qu'il classe les champs électromagnétiques des téléphones portables et d'autres sources comme «probablement cancérigènes pour l'homme» et conseille publiquement d'adopter des mesures de sécurité pour en réduire l'exposition, comme l'utilisation de kits mains libres ou de textos.
+Certaines autorités nationales de conseil en matière de rayonnement, y compris celles d'Autriche, de France, d' Allemagne et de Suède recommandent des mesures de minimisation de l'exposition de leurs citoyens.
 Exemples de recommandations :
 Utiliser un kit mains libres pour diminuer le rayonnement vers la tête.
 Garder le téléphone portable éloigné du corps.
 N'utilisez pas le téléphone dans une voiture sans antenne externe.
-L'utilisation du «kit mains libres» n'a pas été recommandée par la British Consumers 'Association dans une déclaration de novembre 2000, car elle estimait que l'exposition était accrue. Cependant, des mesures pour le ministère britannique du Commerce et de l'Industrie[68] et d'autres mesures pour l'Agence française de sécurité sanitaire de l'environnement et du travail[69] ont montré des réductions substantielles d'exposition dues à l'utilisation d'un kit mains libres.
+L'utilisation du «kit mains libres» n'a pas été recommandée par la British Consumers 'Association dans une déclaration de novembre 2000, car elle estimait que l'exposition était accrue. Cependant, des mesures pour le ministère britannique du Commerce et de l'Industrie et d'autres mesures pour l'Agence française de sécurité sanitaire de l'environnement et du travail ont montré des réductions substantielles d'exposition dues à l'utilisation d'un kit mains libres.
 En 2005, le professeur Lawrie Challis et d'autres  que le fait de clipper une perle de ferrite sur un kit mains libres empêcherait les ondes radio de remonter vers la tête via le fil.
-Plusieurs nations ont conseillé une utilisation modérée des téléphones portables pour les enfants[70].
+Plusieurs nations ont conseillé une utilisation modérée des téléphones portables pour les enfants.
 Une publication de Gandhi et al. en 2006 indique que les enfants reçoivent des niveaux plus élevés de taux d'absorption spécifique (SAR). Lorsque les enfants de 5 et 10 ans sont comparés aux adultes, ils reçoivent des niveaux de DAS plus élevés d'environ 153 % – c'est-à-dire deux fois et demi les niveaux des adultes.
-De plus, avec la permittivité du cerveau diminuant à mesure que l'on vieillit et le volume relatif plus élevé du cerveau en croissance exposé chez les enfants, le rayonnement pénètre bien au-delà dans la mésencéphale[71].
-5G
-La FDA aurait déclaré qu'elle « … continue de croire que les limites de sécurité actuelles pour l'exposition à l'énergie des radiofréquences des téléphones portables restent acceptables pour protéger la santé publique. »[72]
+De plus, avec la permittivité du cerveau diminuant à mesure que l'on vieillit et le volume relatif plus élevé du cerveau en croissance exposé chez les enfants, le rayonnement pénètre bien au-delà dans la mésencéphale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Effets_biologiques_et_environnementaux_des_champs_électromagnétiques</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Effets_biologiques_et_environnementaux_des_champs_%C3%A9lectromagn%C3%A9tiques</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Précautions</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Mesures de précaution et avis sanitaires</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>5G</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La FDA aurait déclaré qu'elle « … continue de croire que les limites de sécurité actuelles pour l'exposition à l'énergie des radiofréquences des téléphones portables restent acceptables pour protéger la santé publique. »
 Pendant la pandémie de COVID-19, des informations erronées ont circulé affirmant que les réseaux 5G contribuent à la propagation de COVID-19.
-Produits contrefaits
-Des produits ont été vendus censés protéger les gens des rayonnements électromagnétiques des téléphones portables ; aux États-Unis, la Federal Trade Commission a publié un avertissement selon lequel «les escrocs suivent les gros titres pour promouvoir des produits qui jouent sur les informations – et s'en prennent aux personnes concernées.»[73]
-Selon la FTC, «il n'y a aucune preuve scientifique que les soi-disant boucliers réduisent de manière significative l'exposition aux émissions électromagnétiques. Les produits qui bloquent uniquement l'écouteur – ou une autre petite partie du téléphone – sont totalement inefficaces car tout le téléphone émet des ondes électromagnétiques.» De tels boucliers «peuvent interférer avec le signal du téléphone, l'amener à consommer encore plus d'énergie pour communiquer avec la station de base et éventuellement émettre plus de rayonnement.»[73]
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Effets_biologiques_et_environnementaux_des_champs_%C3%A9lectromagn%C3%A9tiques</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Effets_biologiques_et_environnementaux_des_champs_%C3%A9lectromagn%C3%A9tiques</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Effets_biologiques_et_environnementaux_des_champs_électromagnétiques</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Effets_biologiques_et_environnementaux_des_champs_%C3%A9lectromagn%C3%A9tiques</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Précautions</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Produits contrefaits</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des produits ont été vendus censés protéger les gens des rayonnements électromagnétiques des téléphones portables ; aux États-Unis, la Federal Trade Commission a publié un avertissement selon lequel «les escrocs suivent les gros titres pour promouvoir des produits qui jouent sur les informations – et s'en prennent aux personnes concernées.»
+Selon la FTC, «il n'y a aucune preuve scientifique que les soi-disant boucliers réduisent de manière significative l'exposition aux émissions électromagnétiques. Les produits qui bloquent uniquement l'écouteur – ou une autre petite partie du téléphone – sont totalement inefficaces car tout le téléphone émet des ondes électromagnétiques.» De tels boucliers «peuvent interférer avec le signal du téléphone, l'amener à consommer encore plus d'énergie pour communiquer avec la station de base et éventuellement émettre plus de rayonnement.»
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Effets_biologiques_et_environnementaux_des_champs_électromagnétiques</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Effets_biologiques_et_environnementaux_des_champs_%C3%A9lectromagn%C3%A9tiques</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>Contestation et procès</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Certaines associations jugent que les normes d'exposition sont inappropriées, parce qu'elles ne prendraient pas en compte des effets supposés de nature non thermique[74] alors que des spécialistes et des groupes d'experts insistent sur l'absence de preuve des effets non thermiques[75]. Ces associations demandent l'abaissement de la limite d'exposition à 0,6 V/m[76]. Le Conseil de l'Europe recommande quant à lui l'abaissement de la norme à 0,6 V/m puis 0,2 V/m à moyen terme[77].
-Procès
-La judiciarisation de la problématique est dénoncée par les experts scientifiques des rayonnements[78].
-En décembre 2009, un tribunal professionnel italien a jugé en appel qu'une tumeur bénigne du nerf trijumeau était liée à l'usage intensif du téléphone mobile pendant dix ans dans un cadre professionnel[79],[80].
-Au Royaume-Uni, une action en justice contre la 5G a demandé une révision judiciaire du projet du gouvernement de déployer cette technologie. En cas de succès, le groupe devait être représenté par Michael Mansfield, un éminent avocat britannique. Cette demande a été rejetée au motif que le gouvernement avait démontré que la 5G était aussi sûre que la 4G et que les demandeurs avaient intenté leur action trop tard[81].
-France
-L’application du principe de précaution à l'installation d'antennes relais fait l’objet de nombreux recours de la part d'associations de riverains, mais les juridictions administratives sont partagées quant à l’éventuelle application de ce principe aux antennes de téléphonie mobile. Le 4 février 2009, la cour d'appel de Versailles a condamné « l'entreprise Bouygues Telecom à démonter sous quatre mois ses antennes relais installées à Tassin-la-Demi-Lune, près de Lyon » en reconnaissant « l'exposition à un risque sanitaire »[82] et en invoquant le « principe de précaution »[83]. Cette jurisprudence a été critiquée par l'Académie de médecine qui estime que la cour d’appel de Versailles s’est appuyée « sur une erreur scientifique manifeste en prenant en compte le « risque démontré » de champs d’extrêmement basse fréquence émis par ces antennes. En réalité, d’une part les antennes de téléphonie mobile émettent exclusivement en haute fréquence ; d’autre part, le risque d’exposition aux champs d’extrêmement basses fréquences n’est pas considéré par le Centre international de recherche sur le cancer (CIRC) comme démontré »[84].
-Le 24 février 2010, la cour d'appel d'Angers a annulé l’ordonnance du tribunal de grande instance d’Angers du 5 mars 2009 qui interdisait la pose des antennes relais sur le clocher d’une église en application du principe de précaution[85].
-Dans son arrêt du 19 juillet 2010, le Conseil d’État énonce que le principe de précaution défini à l'article 5 de la Charte de l'environnement  ne fait pas obstacle à l'implantation d'antennes-relais[86]. Statuant sur un pylône de relais de téléphonie mobile dans le périmètre d'un site classé à Amboise, la plus haute juridiction administrative estime qu'en l'état des connaissances scientifiques sur les risques d'exposition du public aux champs électromagnétiques émis par les antennes de relais de téléphonie mobile, les autorités publiques n’ont pas commis d’erreur d’appréciation des risques en acceptant le projet d’installation qui, selon le Conseil d’État, participe à la mission de service public d'accès de tout le territoire à la téléphonie mobile.
-États-Unis
-Aux États-Unis, des poursuites pour blessures corporelles ont été intentées par des particuliers contre des fabricants (dont Motorola[87], NEC, Siemens et Nokia) sur la base d'allégations de causalité de cancer du cerveau et de décès.
-Dans les tribunaux fédéraux américains, le témoignage d'un expert scientifique doit d'abord être évalué par un juge, lors d'une audience Daubert, pour être pertinent et valide avant d'être recevable en tant que preuve. Dans une affaire de 2002 contre Motorola, les plaignants ont allégué que l'utilisation de téléphones portables sans fil pouvait causer un cancer du cerveau et que l'utilisation de téléphones Motorola avait causé le cancer d'un des plaignants. Le juge a statué qu'aucune preuve scientifique suffisamment fiable et pertinente à l'appui d'un lien de causalité général ou spécifique n'avait été présentée par les demandeurs; il a aussi accepté une requête d'exclusion du témoignage des experts des plaignants et a rejeté une requête en exclusion du témoignage de la défense[88].
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certaines associations jugent que les normes d'exposition sont inappropriées, parce qu'elles ne prendraient pas en compte des effets supposés de nature non thermique alors que des spécialistes et des groupes d'experts insistent sur l'absence de preuve des effets non thermiques. Ces associations demandent l'abaissement de la limite d'exposition à 0,6 V/m. Le Conseil de l'Europe recommande quant à lui l'abaissement de la norme à 0,6 V/m puis 0,2 V/m à moyen terme.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Effets_biologiques_et_environnementaux_des_champs_électromagnétiques</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Effets_biologiques_et_environnementaux_des_champs_%C3%A9lectromagn%C3%A9tiques</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Contestation et procès</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Procès</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La judiciarisation de la problématique est dénoncée par les experts scientifiques des rayonnements.
+En décembre 2009, un tribunal professionnel italien a jugé en appel qu'une tumeur bénigne du nerf trijumeau était liée à l'usage intensif du téléphone mobile pendant dix ans dans un cadre professionnel,.
+Au Royaume-Uni, une action en justice contre la 5G a demandé une révision judiciaire du projet du gouvernement de déployer cette technologie. En cas de succès, le groupe devait être représenté par Michael Mansfield, un éminent avocat britannique. Cette demande a été rejetée au motif que le gouvernement avait démontré que la 5G était aussi sûre que la 4G et que les demandeurs avaient intenté leur action trop tard.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Effets_biologiques_et_environnementaux_des_champs_électromagnétiques</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Effets_biologiques_et_environnementaux_des_champs_%C3%A9lectromagn%C3%A9tiques</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Contestation et procès</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Procès</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’application du principe de précaution à l'installation d'antennes relais fait l’objet de nombreux recours de la part d'associations de riverains, mais les juridictions administratives sont partagées quant à l’éventuelle application de ce principe aux antennes de téléphonie mobile. Le 4 février 2009, la cour d'appel de Versailles a condamné « l'entreprise Bouygues Telecom à démonter sous quatre mois ses antennes relais installées à Tassin-la-Demi-Lune, près de Lyon » en reconnaissant « l'exposition à un risque sanitaire » et en invoquant le « principe de précaution ». Cette jurisprudence a été critiquée par l'Académie de médecine qui estime que la cour d’appel de Versailles s’est appuyée « sur une erreur scientifique manifeste en prenant en compte le « risque démontré » de champs d’extrêmement basse fréquence émis par ces antennes. En réalité, d’une part les antennes de téléphonie mobile émettent exclusivement en haute fréquence ; d’autre part, le risque d’exposition aux champs d’extrêmement basses fréquences n’est pas considéré par le Centre international de recherche sur le cancer (CIRC) comme démontré ».
+Le 24 février 2010, la cour d'appel d'Angers a annulé l’ordonnance du tribunal de grande instance d’Angers du 5 mars 2009 qui interdisait la pose des antennes relais sur le clocher d’une église en application du principe de précaution.
+Dans son arrêt du 19 juillet 2010, le Conseil d’État énonce que le principe de précaution défini à l'article 5 de la Charte de l'environnement  ne fait pas obstacle à l'implantation d'antennes-relais. Statuant sur un pylône de relais de téléphonie mobile dans le périmètre d'un site classé à Amboise, la plus haute juridiction administrative estime qu'en l'état des connaissances scientifiques sur les risques d'exposition du public aux champs électromagnétiques émis par les antennes de relais de téléphonie mobile, les autorités publiques n’ont pas commis d’erreur d’appréciation des risques en acceptant le projet d’installation qui, selon le Conseil d’État, participe à la mission de service public d'accès de tout le territoire à la téléphonie mobile.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Effets_biologiques_et_environnementaux_des_champs_électromagnétiques</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Effets_biologiques_et_environnementaux_des_champs_%C3%A9lectromagn%C3%A9tiques</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Contestation et procès</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Procès</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>États-Unis</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aux États-Unis, des poursuites pour blessures corporelles ont été intentées par des particuliers contre des fabricants (dont Motorola, NEC, Siemens et Nokia) sur la base d'allégations de causalité de cancer du cerveau et de décès.
+Dans les tribunaux fédéraux américains, le témoignage d'un expert scientifique doit d'abord être évalué par un juge, lors d'une audience Daubert, pour être pertinent et valide avant d'être recevable en tant que preuve. Dans une affaire de 2002 contre Motorola, les plaignants ont allégué que l'utilisation de téléphones portables sans fil pouvait causer un cancer du cerveau et que l'utilisation de téléphones Motorola avait causé le cancer d'un des plaignants. Le juge a statué qu'aucune preuve scientifique suffisamment fiable et pertinente à l'appui d'un lien de causalité général ou spécifique n'avait été présentée par les demandeurs; il a aussi accepté une requête d'exclusion du témoignage des experts des plaignants et a rejeté une requête en exclusion du témoignage de la défense.
 </t>
         </is>
       </c>
